--- a/artifacts/LAPR3-2023-Self-Assessment_v2.0_2NB_G322_sprint2.xlsx
+++ b/artifacts/LAPR3-2023-Self-Assessment_v2.0_2NB_G322_sprint2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diogoespiritosanto/ESINF/master/artifacts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcaro\PI3\lapr3-2023-2024-group322_main\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C8576F-9ADF-B74C-9A15-ABF434A883A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EE670B-BCB6-4A6C-95E1-28F1B284A812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="33120" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -1744,37 +1744,37 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="7.83203125" customWidth="1"/>
+    <col min="4" max="19" width="7.875" customWidth="1"/>
     <col min="20" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>127</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1785,13 +1785,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:20" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:20" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="65" t="s">
@@ -1813,7 +1813,7 @@
       <c r="S8" s="66"/>
       <c r="T8" s="67"/>
     </row>
-    <row r="9" spans="1:20" ht="106" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="105.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="42">
@@ -1880,7 +1880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="62" t="s">
         <v>6</v>
       </c>
@@ -1915,23 +1915,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="63"/>
       <c r="C11" s="8">
         <v>1212044</v>
       </c>
-      <c r="D11" s="9">
-        <v>4</v>
-      </c>
-      <c r="E11" s="36">
-        <v>3</v>
-      </c>
-      <c r="F11" s="35">
-        <v>5</v>
-      </c>
-      <c r="G11" s="8">
-        <v>4</v>
-      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -1945,10 +1937,10 @@
       <c r="R11" s="10"/>
       <c r="S11" s="51">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="63"/>
       <c r="C12" s="8">
         <v>1212047</v>
@@ -1960,10 +1952,10 @@
         <v>4</v>
       </c>
       <c r="F12" s="36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G12" s="35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -1978,26 +1970,18 @@
       <c r="R12" s="10"/>
       <c r="S12" s="51">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="63"/>
       <c r="C13" s="8">
         <v>1221720</v>
       </c>
-      <c r="D13" s="8">
-        <v>4</v>
-      </c>
-      <c r="E13" s="8">
-        <v>4</v>
-      </c>
-      <c r="F13" s="9">
-        <v>5</v>
-      </c>
-      <c r="G13" s="36">
-        <v>4</v>
-      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="36"/>
       <c r="H13" s="35"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -2011,10 +1995,10 @@
       <c r="R13" s="10"/>
       <c r="S13" s="51">
         <f t="shared" si="0"/>
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="63"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -2037,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="63"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2060,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="63"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2083,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="63"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -2106,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="63"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2129,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="63"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2152,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="63"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2175,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="63"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2198,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="63"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2221,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="63"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2244,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="64"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
@@ -2267,26 +2251,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="45" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="46">
         <f t="shared" ref="D25:R25" si="1">IFERROR(AVERAGE(D10:D24),0)</f>
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="E25" s="46">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="F25" s="46">
         <f t="shared" si="1"/>
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="G25" s="46">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H25" s="46">
         <f t="shared" si="1"/>
@@ -2334,27 +2318,27 @@
       </c>
       <c r="S25" s="53"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2362,7 +2346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2370,7 +2354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2378,7 +2362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2386,7 +2370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2394,7 +2378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
@@ -2427,25 +2411,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
         <v>18</v>
       </c>
@@ -2477,7 +2461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="63"/>
       <c r="B4" s="71"/>
       <c r="C4" s="71"/>
@@ -2501,7 +2485,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="63"/>
       <c r="B5" s="71"/>
       <c r="C5" s="71"/>
@@ -2525,7 +2509,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -2555,7 +2539,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -2583,7 +2567,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -2613,7 +2597,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -2641,14 +2625,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="14">
         <v>6</v>
       </c>
       <c r="B10" s="29">
         <v>1212047</v>
       </c>
-      <c r="C10" s="29"/>
+      <c r="C10" s="29">
+        <v>4</v>
+      </c>
       <c r="D10" s="60"/>
       <c r="E10" s="14" t="s">
         <v>28</v>
@@ -2669,7 +2655,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -2697,7 +2683,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="14">
         <v>9</v>
       </c>
@@ -2727,7 +2713,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -2755,7 +2741,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -2779,7 +2765,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -2803,7 +2789,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -2827,7 +2813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -2851,7 +2837,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -2875,7 +2861,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -2899,7 +2885,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -2923,7 +2909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -2947,7 +2933,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -2971,7 +2957,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -2995,7 +2981,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -3019,7 +3005,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="22"/>
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
@@ -3084,28 +3070,28 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.83203125" style="1"/>
+    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>37</v>
       </c>
@@ -3124,8 +3110,8 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:26" ht="49" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:26" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>38</v>
       </c>
@@ -3226,7 +3212,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>40</v>
       </c>
@@ -3236,15 +3222,11 @@
       <c r="C4" s="25">
         <v>5</v>
       </c>
-      <c r="D4" s="25">
-        <v>4</v>
-      </c>
+      <c r="D4" s="25"/>
       <c r="E4" s="25">
         <v>4</v>
       </c>
-      <c r="F4" s="25">
-        <v>3</v>
-      </c>
+      <c r="F4" s="25"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
@@ -3258,7 +3240,7 @@
       <c r="Q4" s="25"/>
       <c r="R4" s="27">
         <f t="shared" ref="R4:R7" si="0">AVERAGE(C4:Q4)</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>41</v>
@@ -3281,7 +3263,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="119" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>47</v>
       </c>
@@ -3291,15 +3273,11 @@
       <c r="C5" s="25">
         <v>3</v>
       </c>
-      <c r="D5" s="25">
-        <v>4</v>
-      </c>
+      <c r="D5" s="25"/>
       <c r="E5" s="25">
-        <v>4</v>
-      </c>
-      <c r="F5" s="25">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
@@ -3313,7 +3291,7 @@
       <c r="Q5" s="25"/>
       <c r="R5" s="27">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="S5" s="7" t="s">
         <v>48</v>
@@ -3336,7 +3314,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>54</v>
       </c>
@@ -3346,15 +3324,11 @@
       <c r="C6" s="25">
         <v>4</v>
       </c>
-      <c r="D6" s="25">
-        <v>4</v>
-      </c>
+      <c r="D6" s="25"/>
       <c r="E6" s="25">
         <v>4</v>
       </c>
-      <c r="F6" s="25">
-        <v>4</v>
-      </c>
+      <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
@@ -3391,7 +3365,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="102" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>60</v>
       </c>
@@ -3402,7 +3376,9 @@
         <v>4</v>
       </c>
       <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
+      <c r="E7" s="25">
+        <v>4</v>
+      </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
@@ -3440,7 +3416,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>36</v>
       </c>
@@ -3454,15 +3430,15 @@
       </c>
       <c r="D8" s="7">
         <f t="shared" si="1"/>
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="1"/>
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" si="1"/>
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="1"/>
@@ -3518,7 +3494,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>66</v>
       </c>
@@ -3529,15 +3505,15 @@
       </c>
       <c r="D9" s="23">
         <f t="shared" ref="D9:Q9" si="2">D8/5*20</f>
-        <v>12.8</v>
+        <v>0</v>
       </c>
       <c r="E9" s="23">
         <f t="shared" si="2"/>
-        <v>12.8</v>
+        <v>15.2</v>
       </c>
       <c r="F9" s="23">
         <f t="shared" si="2"/>
-        <v>12.4</v>
+        <v>0</v>
       </c>
       <c r="G9" s="23">
         <f t="shared" si="2"/>
@@ -3593,7 +3569,7 @@
       <c r="Y9" s="23"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
@@ -3612,26 +3588,26 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="20.6640625" style="1" customWidth="1"/>
+    <col min="22" max="24" width="20.625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.83203125" style="1"/>
+    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>67</v>
       </c>
@@ -3650,7 +3626,7 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="3" spans="1:26" ht="49" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="48.75" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>38</v>
       </c>
@@ -3751,7 +3727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>68</v>
       </c>
@@ -3761,15 +3737,11 @@
       <c r="C4" s="25">
         <v>5</v>
       </c>
-      <c r="D4" s="25">
-        <v>3</v>
-      </c>
+      <c r="D4" s="25"/>
       <c r="E4" s="25">
         <v>5</v>
       </c>
-      <c r="F4" s="25">
-        <v>4</v>
-      </c>
+      <c r="F4" s="25"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
@@ -3783,7 +3755,7 @@
       <c r="Q4" s="25"/>
       <c r="R4" s="55">
         <f t="shared" ref="R4:R7" si="0">AVERAGE(C4:Q4)</f>
-        <v>4.25</v>
+        <v>5</v>
       </c>
       <c r="S4" s="59" t="s">
         <v>69</v>
@@ -3806,7 +3778,7 @@
       <c r="Y4" s="56"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>75</v>
       </c>
@@ -3816,15 +3788,11 @@
       <c r="C5" s="25">
         <v>4</v>
       </c>
-      <c r="D5" s="25">
-        <v>4</v>
-      </c>
+      <c r="D5" s="25"/>
       <c r="E5" s="25">
         <v>4</v>
       </c>
-      <c r="F5" s="25">
-        <v>4</v>
-      </c>
+      <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
@@ -3861,7 +3829,7 @@
       <c r="Y5" s="56"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>82</v>
       </c>
@@ -3871,15 +3839,11 @@
       <c r="C6" s="25">
         <v>4</v>
       </c>
-      <c r="D6" s="25">
-        <v>4</v>
-      </c>
+      <c r="D6" s="25"/>
       <c r="E6" s="25">
-        <v>4</v>
-      </c>
-      <c r="F6" s="25">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
@@ -3893,7 +3857,7 @@
       <c r="Q6" s="25"/>
       <c r="R6" s="55">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="S6" s="59" t="s">
         <v>83</v>
@@ -3916,7 +3880,7 @@
       <c r="Y6" s="56"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>89</v>
       </c>
@@ -3926,15 +3890,11 @@
       <c r="C7" s="25">
         <v>5</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25">
         <v>4</v>
       </c>
-      <c r="E7" s="25">
-        <v>5</v>
-      </c>
-      <c r="F7" s="25">
-        <v>4</v>
-      </c>
+      <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
@@ -3971,7 +3931,7 @@
       <c r="Y7" s="56"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>95</v>
       </c>
@@ -3981,15 +3941,11 @@
       <c r="C8" s="25">
         <v>4</v>
       </c>
-      <c r="D8" s="25">
-        <v>4</v>
-      </c>
+      <c r="D8" s="25"/>
       <c r="E8" s="25">
         <v>4</v>
       </c>
-      <c r="F8" s="25">
-        <v>4</v>
-      </c>
+      <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
@@ -4026,7 +3982,7 @@
       <c r="Y8" s="56"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>101</v>
       </c>
@@ -4036,15 +3992,11 @@
       <c r="C9" s="25">
         <v>4</v>
       </c>
-      <c r="D9" s="25">
-        <v>3</v>
-      </c>
+      <c r="D9" s="25"/>
       <c r="E9" s="25">
-        <v>5</v>
-      </c>
-      <c r="F9" s="25">
         <v>4</v>
       </c>
+      <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
@@ -4077,7 +4029,7 @@
       <c r="Y9" s="56"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>106</v>
       </c>
@@ -4087,15 +4039,11 @@
       <c r="C10" s="25">
         <v>4</v>
       </c>
-      <c r="D10" s="25">
-        <v>4</v>
-      </c>
+      <c r="D10" s="25"/>
       <c r="E10" s="25">
         <v>4</v>
       </c>
-      <c r="F10" s="25">
-        <v>4</v>
-      </c>
+      <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
@@ -4132,7 +4080,7 @@
       <c r="Y10" s="56"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>112</v>
       </c>
@@ -4142,15 +4090,11 @@
       <c r="C11" s="25">
         <v>4</v>
       </c>
-      <c r="D11" s="25">
-        <v>3</v>
-      </c>
+      <c r="D11" s="25"/>
       <c r="E11" s="25">
         <v>4</v>
       </c>
-      <c r="F11" s="25">
-        <v>3</v>
-      </c>
+      <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
@@ -4164,7 +4108,7 @@
       <c r="Q11" s="25"/>
       <c r="R11" s="55">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="S11" s="59" t="s">
         <v>102</v>
@@ -4187,7 +4131,7 @@
       <c r="Y11" s="56"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>118</v>
       </c>
@@ -4198,7 +4142,9 @@
         <v>4</v>
       </c>
       <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="E12" s="25">
+        <v>4</v>
+      </c>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
@@ -4236,7 +4182,7 @@
       <c r="Y12" s="56"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>119</v>
       </c>
@@ -4246,15 +4192,11 @@
       <c r="C13" s="25">
         <v>4</v>
       </c>
-      <c r="D13" s="25">
-        <v>5</v>
-      </c>
+      <c r="D13" s="25"/>
       <c r="E13" s="25">
-        <v>5</v>
-      </c>
-      <c r="F13" s="25">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
@@ -4268,7 +4210,7 @@
       <c r="Q13" s="25"/>
       <c r="R13" s="55">
         <f t="shared" ref="R13:R14" si="3">AVERAGE(C13:Q13)</f>
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="S13" s="59" t="s">
         <v>120</v>
@@ -4291,7 +4233,7 @@
       <c r="Y13" s="56"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>126</v>
       </c>
@@ -4301,15 +4243,11 @@
       <c r="C14" s="25">
         <v>4</v>
       </c>
-      <c r="D14" s="25">
-        <v>4</v>
-      </c>
+      <c r="D14" s="25"/>
       <c r="E14" s="25">
         <v>4</v>
       </c>
-      <c r="F14" s="25">
-        <v>4</v>
-      </c>
+      <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
@@ -4346,7 +4284,7 @@
       <c r="Y14" s="56"/>
       <c r="Z14" s="15"/>
     </row>
-    <row r="15" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>36</v>
       </c>
@@ -4360,15 +4298,15 @@
       </c>
       <c r="D15" s="7">
         <f t="shared" ref="D15:Q15" si="4">SUMPRODUCT(D4:D14,$B$4:$B$14)</f>
-        <v>3.4499999999999997</v>
+        <v>0</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="4"/>
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="4"/>
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="4"/>
@@ -4424,7 +4362,7 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>66</v>
       </c>
@@ -4435,15 +4373,15 @@
       </c>
       <c r="D16" s="23">
         <f t="shared" ref="D16:Q16" si="5">D15/5*20</f>
-        <v>13.799999999999999</v>
+        <v>0</v>
       </c>
       <c r="E16" s="23">
         <f t="shared" si="5"/>
-        <v>15.600000000000001</v>
+        <v>15.8</v>
       </c>
       <c r="F16" s="23">
         <f t="shared" si="5"/>
-        <v>14.399999999999999</v>
+        <v>0</v>
       </c>
       <c r="G16" s="23">
         <f t="shared" si="5"/>
@@ -4499,7 +4437,7 @@
       <c r="Y16" s="23"/>
       <c r="Z16" s="16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
     </row>
   </sheetData>
@@ -4523,12 +4461,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d21ddf3f0b128e39c9d770c8c903166">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0326308c339679ad994635f2c691325" ns2:_="">
     <xsd:import namespace="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
@@ -4712,6 +4644,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
   <ds:schemaRefs>
@@ -4721,22 +4659,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B77F7C-EE47-4FBD-B078-6536C1487A1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4753,4 +4675,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/artifacts/LAPR3-2023-Self-Assessment_v2.0_2NB_G322_sprint2.xlsx
+++ b/artifacts/LAPR3-2023-Self-Assessment_v2.0_2NB_G322_sprint2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcaro\PI3\lapr3-2023-2024-group322_main\artifacts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardo/IdeaProjects/2º Ano/1º Semestre/lapr3-2023-2024-group322_main/artifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EE670B-BCB6-4A6C-95E1-28F1B284A812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F34348-7FE6-8347-BAB6-94D52411F5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -1745,36 +1745,36 @@
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="7.875" customWidth="1"/>
+    <col min="4" max="19" width="7.83203125" customWidth="1"/>
     <col min="20" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>127</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1785,13 +1785,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:20" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:20" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="65" t="s">
@@ -1813,7 +1813,7 @@
       <c r="S8" s="66"/>
       <c r="T8" s="67"/>
     </row>
-    <row r="9" spans="1:20" ht="105.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="106" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="42">
@@ -1880,7 +1880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="62" t="s">
         <v>6</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="63"/>
       <c r="C11" s="8">
         <v>1212044</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="63"/>
       <c r="C12" s="8">
         <v>1212047</v>
@@ -1973,15 +1973,23 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="63"/>
       <c r="C13" s="8">
         <v>1221720</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="36"/>
+      <c r="D13" s="8">
+        <v>4</v>
+      </c>
+      <c r="E13" s="8">
+        <v>4</v>
+      </c>
+      <c r="F13" s="9">
+        <v>5</v>
+      </c>
+      <c r="G13" s="36">
+        <v>5</v>
+      </c>
       <c r="H13" s="35"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -1995,10 +2003,10 @@
       <c r="R13" s="10"/>
       <c r="S13" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="63"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -2021,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="63"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2044,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="63"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2067,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="63"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -2090,7 +2098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="63"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2113,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="63"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2136,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="63"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2159,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="63"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2182,7 +2190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="63"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2205,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="63"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2228,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="64"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
@@ -2251,14 +2259,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="45" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="46">
         <f t="shared" ref="D25:R25" si="1">IFERROR(AVERAGE(D10:D24),0)</f>
-        <v>3.5</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="E25" s="46">
         <f t="shared" si="1"/>
@@ -2270,7 +2278,7 @@
       </c>
       <c r="G25" s="46">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="H25" s="46">
         <f t="shared" si="1"/>
@@ -2318,27 +2326,27 @@
       </c>
       <c r="S25" s="53"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2346,7 +2354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2354,7 +2362,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2362,7 +2370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2370,7 +2378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2378,7 +2386,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5</v>
       </c>
@@ -2411,25 +2419,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="62" t="s">
         <v>18</v>
       </c>
@@ -2461,7 +2469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="63"/>
       <c r="B4" s="71"/>
       <c r="C4" s="71"/>
@@ -2485,7 +2493,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63"/>
       <c r="B5" s="71"/>
       <c r="C5" s="71"/>
@@ -2509,7 +2517,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -2539,7 +2547,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -2567,7 +2575,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -2597,7 +2605,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -2625,7 +2633,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -2655,14 +2663,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>7</v>
       </c>
       <c r="B11" s="29">
         <v>1221720</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="29">
+        <v>4</v>
+      </c>
       <c r="D11" s="60"/>
       <c r="E11" s="14" t="s">
         <v>28</v>
@@ -2683,7 +2693,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>9</v>
       </c>
@@ -2713,7 +2723,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -2741,7 +2751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -2765,7 +2775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -2789,7 +2799,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -2813,7 +2823,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -2837,7 +2847,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -2861,7 +2871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -2885,7 +2895,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -2909,7 +2919,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -2933,7 +2943,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -2957,7 +2967,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -2981,7 +2991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -3005,7 +3015,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
@@ -3070,28 +3080,28 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.875" style="1"/>
+    <col min="26" max="26" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>37</v>
       </c>
@@ -3110,8 +3120,8 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:26" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:26" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>38</v>
       </c>
@@ -3212,7 +3222,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>40</v>
       </c>
@@ -3226,7 +3236,9 @@
       <c r="E4" s="25">
         <v>4</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="25">
+        <v>4</v>
+      </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
@@ -3240,7 +3252,7 @@
       <c r="Q4" s="25"/>
       <c r="R4" s="27">
         <f t="shared" ref="R4:R7" si="0">AVERAGE(C4:Q4)</f>
-        <v>4.5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>41</v>
@@ -3263,7 +3275,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>47</v>
       </c>
@@ -3277,7 +3289,9 @@
       <c r="E5" s="25">
         <v>3</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="25">
+        <v>3</v>
+      </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
@@ -3314,7 +3328,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>54</v>
       </c>
@@ -3328,7 +3342,9 @@
       <c r="E6" s="25">
         <v>4</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="25">
+        <v>4</v>
+      </c>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
@@ -3365,7 +3381,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>60</v>
       </c>
@@ -3379,7 +3395,9 @@
       <c r="E7" s="25">
         <v>4</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="25">
+        <v>4</v>
+      </c>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
@@ -3416,7 +3434,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>36</v>
       </c>
@@ -3438,7 +3456,7 @@
       </c>
       <c r="F8" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="1"/>
@@ -3494,7 +3512,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>66</v>
       </c>
@@ -3513,7 +3531,7 @@
       </c>
       <c r="F9" s="23">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="G9" s="23">
         <f t="shared" si="2"/>
@@ -3569,7 +3587,7 @@
       <c r="Y9" s="23"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
@@ -3588,26 +3606,26 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="20.625" style="1" customWidth="1"/>
+    <col min="22" max="24" width="20.6640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.875" style="1"/>
+    <col min="26" max="26" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>67</v>
       </c>
@@ -3626,7 +3644,7 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="3" spans="1:26" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>38</v>
       </c>
@@ -3727,7 +3745,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>68</v>
       </c>
@@ -3741,7 +3759,9 @@
       <c r="E4" s="25">
         <v>5</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="25">
+        <v>5</v>
+      </c>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
@@ -3778,7 +3798,7 @@
       <c r="Y4" s="56"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>75</v>
       </c>
@@ -3792,7 +3812,9 @@
       <c r="E5" s="25">
         <v>4</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="25">
+        <v>4</v>
+      </c>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
@@ -3829,7 +3851,7 @@
       <c r="Y5" s="56"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>82</v>
       </c>
@@ -3843,7 +3865,9 @@
       <c r="E6" s="25">
         <v>1</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="25">
+        <v>3</v>
+      </c>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
@@ -3857,7 +3881,7 @@
       <c r="Q6" s="25"/>
       <c r="R6" s="55">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="S6" s="59" t="s">
         <v>83</v>
@@ -3880,7 +3904,7 @@
       <c r="Y6" s="56"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>89</v>
       </c>
@@ -3894,7 +3918,9 @@
       <c r="E7" s="25">
         <v>4</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="25">
+        <v>4</v>
+      </c>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
@@ -3908,7 +3934,7 @@
       <c r="Q7" s="25"/>
       <c r="R7" s="55">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="S7" s="59" t="s">
         <v>83</v>
@@ -3931,7 +3957,7 @@
       <c r="Y7" s="56"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>95</v>
       </c>
@@ -3945,7 +3971,9 @@
       <c r="E8" s="25">
         <v>4</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="25">
+        <v>4</v>
+      </c>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
@@ -3982,7 +4010,7 @@
       <c r="Y8" s="56"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>101</v>
       </c>
@@ -3996,7 +4024,9 @@
       <c r="E9" s="25">
         <v>4</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="25">
+        <v>3</v>
+      </c>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
@@ -4010,7 +4040,7 @@
       <c r="Q9" s="25"/>
       <c r="R9" s="55">
         <f t="shared" ref="R9:R11" si="2">AVERAGE(C9:Q9)</f>
-        <v>4</v>
+        <v>3.6666666666666665</v>
       </c>
       <c r="S9" s="59" t="s">
         <v>102</v>
@@ -4029,7 +4059,7 @@
       <c r="Y9" s="56"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>106</v>
       </c>
@@ -4043,7 +4073,9 @@
       <c r="E10" s="25">
         <v>4</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="25">
+        <v>4</v>
+      </c>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
@@ -4080,7 +4112,7 @@
       <c r="Y10" s="56"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>112</v>
       </c>
@@ -4094,7 +4126,9 @@
       <c r="E11" s="25">
         <v>4</v>
       </c>
-      <c r="F11" s="25"/>
+      <c r="F11" s="25">
+        <v>4</v>
+      </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
@@ -4131,7 +4165,7 @@
       <c r="Y11" s="56"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>118</v>
       </c>
@@ -4145,7 +4179,9 @@
       <c r="E12" s="25">
         <v>4</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="25">
+        <v>4</v>
+      </c>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
@@ -4182,7 +4218,7 @@
       <c r="Y12" s="56"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>119</v>
       </c>
@@ -4196,7 +4232,9 @@
       <c r="E13" s="25">
         <v>4</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="25">
+        <v>4</v>
+      </c>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
@@ -4233,7 +4271,7 @@
       <c r="Y13" s="56"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>126</v>
       </c>
@@ -4247,7 +4285,9 @@
       <c r="E14" s="25">
         <v>4</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="25">
+        <v>4</v>
+      </c>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
@@ -4284,7 +4324,7 @@
       <c r="Y14" s="56"/>
       <c r="Z14" s="15"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>36</v>
       </c>
@@ -4306,7 +4346,7 @@
       </c>
       <c r="F15" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.9999999999999996</v>
       </c>
       <c r="G15" s="7">
         <f t="shared" si="4"/>
@@ -4362,7 +4402,7 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>66</v>
       </c>
@@ -4381,7 +4421,7 @@
       </c>
       <c r="F16" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>15.999999999999998</v>
       </c>
       <c r="G16" s="23">
         <f t="shared" si="5"/>
@@ -4437,7 +4477,7 @@
       <c r="Y16" s="23"/>
       <c r="Z16" s="16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
     </row>
   </sheetData>
@@ -4452,12 +4492,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4645,15 +4682,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4678,17 +4726,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/artifacts/LAPR3-2023-Self-Assessment_v2.0_2NB_G322_sprint2.xlsx
+++ b/artifacts/LAPR3-2023-Self-Assessment_v2.0_2NB_G322_sprint2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rcaro\PI3\lapr3-2023-2024-group322_main\artifacts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diogoespiritosanto/ESINF/master/artifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EE670B-BCB6-4A6C-95E1-28F1B284A812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277EABAE-9A76-D045-A392-5C47EDFB28BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -1748,33 +1748,33 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="5.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="7.875" customWidth="1"/>
+    <col min="4" max="19" width="7.83203125" customWidth="1"/>
     <col min="20" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>127</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1785,13 +1785,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:20" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:20" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="65" t="s">
@@ -1813,7 +1813,7 @@
       <c r="S8" s="66"/>
       <c r="T8" s="67"/>
     </row>
-    <row r="9" spans="1:20" ht="105.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="106" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="42">
@@ -1880,7 +1880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="62" t="s">
         <v>6</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="63"/>
       <c r="C11" s="8">
         <v>1212044</v>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="63"/>
       <c r="C12" s="8">
         <v>1212047</v>
@@ -1973,7 +1973,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="63"/>
       <c r="C13" s="8">
         <v>1221720</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="63"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="63"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="63"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="63"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="63"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="63"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="63"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="63"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="63"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="63"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="64"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="45" t="s">
         <v>5</v>
@@ -2318,27 +2318,27 @@
       </c>
       <c r="S25" s="53"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5</v>
       </c>
@@ -2415,21 +2415,21 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="62" t="s">
         <v>18</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="63"/>
       <c r="B4" s="71"/>
       <c r="C4" s="71"/>
@@ -2485,7 +2485,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63"/>
       <c r="B5" s="71"/>
       <c r="C5" s="71"/>
@@ -2509,7 +2509,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>9</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -2765,7 +2765,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -2789,7 +2789,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -2813,7 +2813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -2837,7 +2837,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -2861,7 +2861,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -2885,7 +2885,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -2909,7 +2909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -2933,7 +2933,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -2957,7 +2957,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -2981,7 +2981,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -3005,7 +3005,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
@@ -3074,24 +3074,24 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.875" style="1"/>
+    <col min="26" max="26" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>37</v>
       </c>
@@ -3110,8 +3110,8 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:26" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:26" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>38</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>40</v>
       </c>
@@ -3263,7 +3263,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>47</v>
       </c>
@@ -3314,7 +3314,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>54</v>
       </c>
@@ -3365,7 +3365,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>60</v>
       </c>
@@ -3416,7 +3416,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>36</v>
       </c>
@@ -3494,7 +3494,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>66</v>
       </c>
@@ -3569,7 +3569,7 @@
       <c r="Y9" s="23"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
@@ -3588,26 +3588,26 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="20.625" style="1" customWidth="1"/>
+    <col min="22" max="24" width="20.6640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.875" style="1"/>
+    <col min="26" max="26" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>67</v>
       </c>
@@ -3626,7 +3626,7 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="3" spans="1:26" ht="48.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>38</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>68</v>
       </c>
@@ -3778,7 +3778,7 @@
       <c r="Y4" s="56"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>75</v>
       </c>
@@ -3829,7 +3829,7 @@
       <c r="Y5" s="56"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>82</v>
       </c>
@@ -3880,7 +3880,7 @@
       <c r="Y6" s="56"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>89</v>
       </c>
@@ -3931,7 +3931,7 @@
       <c r="Y7" s="56"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>95</v>
       </c>
@@ -3982,7 +3982,7 @@
       <c r="Y8" s="56"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>101</v>
       </c>
@@ -3990,11 +3990,11 @@
         <v>0.05</v>
       </c>
       <c r="C9" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
@@ -4010,7 +4010,7 @@
       <c r="Q9" s="25"/>
       <c r="R9" s="55">
         <f t="shared" ref="R9:R11" si="2">AVERAGE(C9:Q9)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S9" s="59" t="s">
         <v>102</v>
@@ -4029,7 +4029,7 @@
       <c r="Y9" s="56"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>106</v>
       </c>
@@ -4080,7 +4080,7 @@
       <c r="Y10" s="56"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>112</v>
       </c>
@@ -4131,7 +4131,7 @@
       <c r="Y11" s="56"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>118</v>
       </c>
@@ -4182,7 +4182,7 @@
       <c r="Y12" s="56"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>119</v>
       </c>
@@ -4233,7 +4233,7 @@
       <c r="Y13" s="56"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>126</v>
       </c>
@@ -4284,7 +4284,7 @@
       <c r="Y14" s="56"/>
       <c r="Z14" s="15"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>36</v>
       </c>
@@ -4294,7 +4294,7 @@
       </c>
       <c r="C15" s="7">
         <f>SUMPRODUCT(C4:C14,$B$4:$B$14)</f>
-        <v>4.1499999999999995</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" ref="D15:Q15" si="4">SUMPRODUCT(D4:D14,$B$4:$B$14)</f>
@@ -4302,7 +4302,7 @@
       </c>
       <c r="E15" s="7">
         <f t="shared" si="4"/>
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="4"/>
@@ -4362,14 +4362,14 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>66</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="23">
         <f>C15/5*20</f>
-        <v>16.599999999999998</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D16" s="23">
         <f t="shared" ref="D16:Q16" si="5">D15/5*20</f>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="E16" s="23">
         <f t="shared" si="5"/>
-        <v>15.8</v>
+        <v>15.600000000000001</v>
       </c>
       <c r="F16" s="23">
         <f t="shared" si="5"/>
@@ -4437,7 +4437,7 @@
       <c r="Y16" s="23"/>
       <c r="Z16" s="16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
     </row>
   </sheetData>
@@ -4452,12 +4452,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4645,15 +4642,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4678,17 +4686,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/artifacts/LAPR3-2023-Self-Assessment_v2.0_2NB_G322_sprint2.xlsx
+++ b/artifacts/LAPR3-2023-Self-Assessment_v2.0_2NB_G322_sprint2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardo/IdeaProjects/2º Ano/1º Semestre/lapr3-2023-2024-group322_main/artifacts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diogoespiritosanto/ESINF/master/artifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F34348-7FE6-8347-BAB6-94D52411F5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B31A51E-162D-474E-8495-D430AB81FBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="29400" windowHeight="18400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -3080,7 +3080,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -3606,8 +3606,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4018,11 +4018,11 @@
         <v>0.05</v>
       </c>
       <c r="C9" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F9" s="25">
         <v>3</v>
@@ -4040,7 +4040,7 @@
       <c r="Q9" s="25"/>
       <c r="R9" s="55">
         <f t="shared" ref="R9:R11" si="2">AVERAGE(C9:Q9)</f>
-        <v>3.6666666666666665</v>
+        <v>3</v>
       </c>
       <c r="S9" s="59" t="s">
         <v>102</v>
@@ -4334,7 +4334,7 @@
       </c>
       <c r="C15" s="7">
         <f>SUMPRODUCT(C4:C14,$B$4:$B$14)</f>
-        <v>4.1499999999999995</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" ref="D15:Q15" si="4">SUMPRODUCT(D4:D14,$B$4:$B$14)</f>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="E15" s="7">
         <f t="shared" si="4"/>
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="4"/>
@@ -4409,7 +4409,7 @@
       <c r="B16" s="23"/>
       <c r="C16" s="23">
         <f>C15/5*20</f>
-        <v>16.599999999999998</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="D16" s="23">
         <f t="shared" ref="D16:Q16" si="5">D15/5*20</f>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="E16" s="23">
         <f t="shared" si="5"/>
-        <v>15.8</v>
+        <v>15.600000000000001</v>
       </c>
       <c r="F16" s="23">
         <f t="shared" si="5"/>
@@ -4492,12 +4492,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d21ddf3f0b128e39c9d770c8c903166">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0326308c339679ad994635f2c691325" ns2:_="">
     <xsd:import namespace="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
@@ -4681,6 +4675,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4691,22 +4691,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B77F7C-EE47-4FBD-B078-6536C1487A1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4725,6 +4709,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
   <ds:schemaRefs>

--- a/artifacts/LAPR3-2023-Self-Assessment_v2.0_2NB_G322_sprint2.xlsx
+++ b/artifacts/LAPR3-2023-Self-Assessment_v2.0_2NB_G322_sprint2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diogoespiritosanto/ESINF/master/artifacts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo\Desktop\lapr3-2023-2024-group322_main\artifacts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B31A51E-162D-474E-8495-D430AB81FBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293B6C99-2412-49AF-B66F-285D619EEB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="29400" windowHeight="18400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5597" yWindow="2691" windowWidth="24686" windowHeight="13055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -1202,7 +1202,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1744,37 +1744,37 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="7.83203125" customWidth="1"/>
+    <col min="4" max="19" width="7.85546875" customWidth="1"/>
     <col min="20" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="20.6" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>127</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1785,13 +1785,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:20" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="8" spans="1:20" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="65" t="s">
@@ -1813,7 +1813,7 @@
       <c r="S8" s="66"/>
       <c r="T8" s="67"/>
     </row>
-    <row r="9" spans="1:20" ht="106" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="106" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="42">
@@ -1880,7 +1880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B10" s="62" t="s">
         <v>6</v>
       </c>
@@ -1915,15 +1915,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="63"/>
       <c r="C11" s="8">
         <v>1212044</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="8"/>
+      <c r="D11" s="9">
+        <v>4</v>
+      </c>
+      <c r="E11" s="36">
+        <v>4</v>
+      </c>
+      <c r="F11" s="35">
+        <v>5</v>
+      </c>
+      <c r="G11" s="8">
+        <v>5</v>
+      </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
@@ -1937,10 +1945,10 @@
       <c r="R11" s="10"/>
       <c r="S11" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B12" s="63"/>
       <c r="C12" s="8">
         <v>1212047</v>
@@ -1973,7 +1981,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="63"/>
       <c r="C13" s="8">
         <v>1221720</v>
@@ -2006,7 +2014,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="63"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -2029,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B15" s="63"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2052,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B16" s="63"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2075,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="63"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -2098,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B18" s="63"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2121,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B19" s="63"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2144,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B20" s="63"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2167,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B21" s="63"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2190,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B22" s="63"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2213,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="63"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2236,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B24" s="64"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
@@ -2259,14 +2267,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B25" s="1"/>
       <c r="C25" s="45" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="46">
         <f t="shared" ref="D25:R25" si="1">IFERROR(AVERAGE(D10:D24),0)</f>
-        <v>3.6666666666666665</v>
+        <v>3.75</v>
       </c>
       <c r="E25" s="46">
         <f t="shared" si="1"/>
@@ -2278,7 +2286,7 @@
       </c>
       <c r="G25" s="46">
         <f t="shared" si="1"/>
-        <v>4.666666666666667</v>
+        <v>4.75</v>
       </c>
       <c r="H25" s="46">
         <f t="shared" si="1"/>
@@ -2326,27 +2334,27 @@
       </c>
       <c r="S25" s="53"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2354,7 +2362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2362,7 +2370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2370,7 +2378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2378,7 +2386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2386,7 +2394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>5</v>
       </c>
@@ -2419,25 +2427,25 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="20.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="16.3" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="62" t="s">
         <v>18</v>
       </c>
@@ -2469,7 +2477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A4" s="63"/>
       <c r="B4" s="71"/>
       <c r="C4" s="71"/>
@@ -2493,7 +2501,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="63"/>
       <c r="B5" s="71"/>
       <c r="C5" s="71"/>
@@ -2517,7 +2525,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -2547,7 +2555,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A7" s="14">
         <v>3</v>
       </c>
@@ -2575,7 +2583,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -2605,14 +2613,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A9" s="14">
         <v>5</v>
       </c>
       <c r="B9" s="29">
         <v>1212044</v>
       </c>
-      <c r="C9" s="29"/>
+      <c r="C9" s="29">
+        <v>4</v>
+      </c>
       <c r="D9" s="60"/>
       <c r="E9" s="14" t="s">
         <v>28</v>
@@ -2633,7 +2643,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -2663,7 +2673,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -2693,7 +2703,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A12" s="14">
         <v>9</v>
       </c>
@@ -2723,7 +2733,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A13" s="14">
         <v>9</v>
       </c>
@@ -2751,7 +2761,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A14" s="14"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -2775,7 +2785,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A15" s="14"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -2799,7 +2809,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A16" s="14"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -2823,7 +2833,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A17" s="14"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -2847,7 +2857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A18" s="14"/>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -2871,7 +2881,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A19" s="14"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -2895,7 +2905,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A20" s="14"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -2919,7 +2929,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A21" s="14"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -2943,7 +2953,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A22" s="14"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -2967,7 +2977,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A23" s="14"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -2991,7 +3001,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A24" s="14"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -3015,7 +3025,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="22"/>
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
@@ -3081,27 +3091,27 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.35546875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.35546875" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.83203125" style="1"/>
+    <col min="26" max="26" width="8.35546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.35546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="20.6" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>37</v>
       </c>
@@ -3120,8 +3130,8 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:26" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="16.3" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="3" spans="1:26" ht="48" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
         <v>38</v>
       </c>
@@ -3222,7 +3232,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="63.45" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>40</v>
       </c>
@@ -3232,7 +3242,9 @@
       <c r="C4" s="25">
         <v>5</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="25">
+        <v>4</v>
+      </c>
       <c r="E4" s="25">
         <v>4</v>
       </c>
@@ -3252,7 +3264,7 @@
       <c r="Q4" s="25"/>
       <c r="R4" s="27">
         <f t="shared" ref="R4:R7" si="0">AVERAGE(C4:Q4)</f>
-        <v>4.333333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="S4" s="7" t="s">
         <v>41</v>
@@ -3275,7 +3287,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="119" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="111" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>47</v>
       </c>
@@ -3285,7 +3297,9 @@
       <c r="C5" s="25">
         <v>3</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="25">
+        <v>3</v>
+      </c>
       <c r="E5" s="25">
         <v>3</v>
       </c>
@@ -3328,7 +3342,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="85" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="79.3" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
         <v>54</v>
       </c>
@@ -3338,7 +3352,9 @@
       <c r="C6" s="25">
         <v>4</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="25">
+        <v>4</v>
+      </c>
       <c r="E6" s="25">
         <v>4</v>
       </c>
@@ -3381,7 +3397,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="102" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="79.3" x14ac:dyDescent="0.45">
       <c r="A7" s="14" t="s">
         <v>60</v>
       </c>
@@ -3391,7 +3407,9 @@
       <c r="C7" s="25">
         <v>4</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="25">
+        <v>4</v>
+      </c>
       <c r="E7" s="25">
         <v>4</v>
       </c>
@@ -3434,7 +3452,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A8" s="14" t="s">
         <v>36</v>
       </c>
@@ -3448,7 +3466,7 @@
       </c>
       <c r="D8" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" si="1"/>
@@ -3512,7 +3530,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="22" t="s">
         <v>66</v>
       </c>
@@ -3523,7 +3541,7 @@
       </c>
       <c r="D9" s="23">
         <f t="shared" ref="D9:Q9" si="2">D8/5*20</f>
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="E9" s="23">
         <f t="shared" si="2"/>
@@ -3587,7 +3605,7 @@
       <c r="Y9" s="23"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
@@ -3606,26 +3624,26 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.35546875" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="20.6640625" style="1" customWidth="1"/>
+    <col min="22" max="24" width="20.640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.83203125" style="1"/>
+    <col min="26" max="26" width="8.35546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.35546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="20.6" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
         <v>67</v>
       </c>
@@ -3644,7 +3662,7 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="3" spans="1:26" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="48" x14ac:dyDescent="0.45">
       <c r="A3" s="19" t="s">
         <v>38</v>
       </c>
@@ -3745,7 +3763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
         <v>68</v>
       </c>
@@ -3755,7 +3773,9 @@
       <c r="C4" s="25">
         <v>5</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="25">
+        <v>5</v>
+      </c>
       <c r="E4" s="25">
         <v>5</v>
       </c>
@@ -3798,7 +3818,7 @@
       <c r="Y4" s="56"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>75</v>
       </c>
@@ -3808,7 +3828,9 @@
       <c r="C5" s="25">
         <v>4</v>
       </c>
-      <c r="D5" s="25"/>
+      <c r="D5" s="25">
+        <v>4</v>
+      </c>
       <c r="E5" s="25">
         <v>4</v>
       </c>
@@ -3851,7 +3873,7 @@
       <c r="Y5" s="56"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
         <v>82</v>
       </c>
@@ -3861,7 +3883,9 @@
       <c r="C6" s="25">
         <v>4</v>
       </c>
-      <c r="D6" s="25"/>
+      <c r="D6" s="25">
+        <v>2</v>
+      </c>
       <c r="E6" s="25">
         <v>1</v>
       </c>
@@ -3881,7 +3905,7 @@
       <c r="Q6" s="25"/>
       <c r="R6" s="55">
         <f t="shared" si="0"/>
-        <v>2.6666666666666665</v>
+        <v>2.5</v>
       </c>
       <c r="S6" s="59" t="s">
         <v>83</v>
@@ -3904,7 +3928,7 @@
       <c r="Y6" s="56"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A7" s="14" t="s">
         <v>89</v>
       </c>
@@ -3914,7 +3938,9 @@
       <c r="C7" s="25">
         <v>5</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="25">
+        <v>4</v>
+      </c>
       <c r="E7" s="25">
         <v>4</v>
       </c>
@@ -3934,7 +3960,7 @@
       <c r="Q7" s="25"/>
       <c r="R7" s="55">
         <f t="shared" si="0"/>
-        <v>4.333333333333333</v>
+        <v>4.25</v>
       </c>
       <c r="S7" s="59" t="s">
         <v>83</v>
@@ -3957,7 +3983,7 @@
       <c r="Y7" s="56"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="47.6" x14ac:dyDescent="0.45">
       <c r="A8" s="14" t="s">
         <v>95</v>
       </c>
@@ -3967,7 +3993,9 @@
       <c r="C8" s="25">
         <v>4</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="25">
+        <v>3</v>
+      </c>
       <c r="E8" s="25">
         <v>4</v>
       </c>
@@ -3987,7 +4015,7 @@
       <c r="Q8" s="25"/>
       <c r="R8" s="55">
         <f t="shared" ref="R8:R12" si="1">AVERAGE(C8:Q8)</f>
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="S8" s="59" t="s">
         <v>83</v>
@@ -4010,7 +4038,7 @@
       <c r="Y8" s="56"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="63.45" x14ac:dyDescent="0.45">
       <c r="A9" s="14" t="s">
         <v>101</v>
       </c>
@@ -4020,7 +4048,9 @@
       <c r="C9" s="25">
         <v>3</v>
       </c>
-      <c r="D9" s="25"/>
+      <c r="D9" s="25">
+        <v>3</v>
+      </c>
       <c r="E9" s="25">
         <v>3</v>
       </c>
@@ -4059,7 +4089,7 @@
       <c r="Y9" s="56"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" ht="102" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="79.3" x14ac:dyDescent="0.45">
       <c r="A10" s="14" t="s">
         <v>106</v>
       </c>
@@ -4069,7 +4099,9 @@
       <c r="C10" s="25">
         <v>4</v>
       </c>
-      <c r="D10" s="25"/>
+      <c r="D10" s="25">
+        <v>4</v>
+      </c>
       <c r="E10" s="25">
         <v>4</v>
       </c>
@@ -4112,7 +4144,7 @@
       <c r="Y10" s="56"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A11" s="14" t="s">
         <v>112</v>
       </c>
@@ -4122,7 +4154,9 @@
       <c r="C11" s="25">
         <v>4</v>
       </c>
-      <c r="D11" s="25"/>
+      <c r="D11" s="25">
+        <v>3</v>
+      </c>
       <c r="E11" s="25">
         <v>4</v>
       </c>
@@ -4142,7 +4176,7 @@
       <c r="Q11" s="25"/>
       <c r="R11" s="55">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="S11" s="59" t="s">
         <v>102</v>
@@ -4165,7 +4199,7 @@
       <c r="Y11" s="56"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A12" s="14" t="s">
         <v>118</v>
       </c>
@@ -4175,7 +4209,9 @@
       <c r="C12" s="25">
         <v>4</v>
       </c>
-      <c r="D12" s="25"/>
+      <c r="D12" s="25">
+        <v>4</v>
+      </c>
       <c r="E12" s="25">
         <v>4</v>
       </c>
@@ -4218,7 +4254,7 @@
       <c r="Y12" s="56"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A13" s="14" t="s">
         <v>119</v>
       </c>
@@ -4228,7 +4264,9 @@
       <c r="C13" s="25">
         <v>4</v>
       </c>
-      <c r="D13" s="25"/>
+      <c r="D13" s="25">
+        <v>4</v>
+      </c>
       <c r="E13" s="25">
         <v>4</v>
       </c>
@@ -4271,7 +4309,7 @@
       <c r="Y13" s="56"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="31.75" x14ac:dyDescent="0.45">
       <c r="A14" s="14" t="s">
         <v>126</v>
       </c>
@@ -4281,7 +4319,9 @@
       <c r="C14" s="25">
         <v>4</v>
       </c>
-      <c r="D14" s="25"/>
+      <c r="D14" s="25">
+        <v>4</v>
+      </c>
       <c r="E14" s="25">
         <v>4</v>
       </c>
@@ -4324,7 +4364,7 @@
       <c r="Y14" s="56"/>
       <c r="Z14" s="15"/>
     </row>
-    <row r="15" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A15" s="14" t="s">
         <v>36</v>
       </c>
@@ -4338,7 +4378,7 @@
       </c>
       <c r="D15" s="7">
         <f t="shared" ref="D15:Q15" si="4">SUMPRODUCT(D4:D14,$B$4:$B$14)</f>
-        <v>0</v>
+        <v>3.7499999999999996</v>
       </c>
       <c r="E15" s="7">
         <f t="shared" si="4"/>
@@ -4402,7 +4442,7 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="1:26" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A16" s="22" t="s">
         <v>66</v>
       </c>
@@ -4413,7 +4453,7 @@
       </c>
       <c r="D16" s="23">
         <f t="shared" ref="D16:Q16" si="5">D15/5*20</f>
-        <v>0</v>
+        <v>14.999999999999998</v>
       </c>
       <c r="E16" s="23">
         <f t="shared" si="5"/>
@@ -4477,7 +4517,7 @@
       <c r="Y16" s="23"/>
       <c r="Z16" s="16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
     </row>
   </sheetData>
@@ -4676,18 +4716,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4710,6 +4750,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
@@ -4723,12 +4771,4 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/artifacts/LAPR3-2023-Self-Assessment_v2.0_2NB_G322_sprint2.xlsx
+++ b/artifacts/LAPR3-2023-Self-Assessment_v2.0_2NB_G322_sprint2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paulo\Desktop\lapr3-2023-2024-group322_main\artifacts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardo/IdeaProjects/2º Ano/1º Semestre/lapr3-2023-2024-group322_main/artifacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293B6C99-2412-49AF-B66F-285D619EEB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AF76CE-26E8-D94D-9CB2-D95BC7D02023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5597" yWindow="2691" windowWidth="24686" windowHeight="13055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -1202,7 +1202,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1744,37 +1744,37 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="5.640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="7.85546875" customWidth="1"/>
+    <col min="4" max="19" width="7.83203125" customWidth="1"/>
     <col min="20" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="20.6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>127</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1785,13 +1785,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="8" spans="1:20" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:20" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="65" t="s">
@@ -1813,7 +1813,7 @@
       <c r="S8" s="66"/>
       <c r="T8" s="67"/>
     </row>
-    <row r="9" spans="1:20" ht="106" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:20" ht="106" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="42">
@@ -1880,7 +1880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="62" t="s">
         <v>6</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="63"/>
       <c r="C11" s="8">
         <v>1212044</v>
@@ -1948,7 +1948,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="63"/>
       <c r="C12" s="8">
         <v>1212047</v>
@@ -1981,7 +1981,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="63"/>
       <c r="C13" s="8">
         <v>1221720</v>
@@ -2014,7 +2014,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="63"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="63"/>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="63"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="63"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="63"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="63"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="63"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="63"/>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="63"/>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="63"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8"/>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="64"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="45" t="s">
         <v>5</v>
@@ -2334,27 +2334,27 @@
       </c>
       <c r="S25" s="53"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>5</v>
       </c>
@@ -2428,24 +2428,24 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.140625" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.3" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="62" t="s">
         <v>18</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="63"/>
       <c r="B4" s="71"/>
       <c r="C4" s="71"/>
@@ -2501,7 +2501,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="63"/>
       <c r="B5" s="71"/>
       <c r="C5" s="71"/>
@@ -2525,7 +2525,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>3</v>
       </c>
@@ -2555,14 +2555,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>3</v>
       </c>
       <c r="B7" s="29">
         <v>1221720</v>
       </c>
-      <c r="C7" s="29"/>
+      <c r="C7" s="29">
+        <v>3</v>
+      </c>
       <c r="D7" s="60"/>
       <c r="E7" s="14" t="s">
         <v>28</v>
@@ -2583,7 +2585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>4</v>
       </c>
@@ -2613,7 +2615,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>5</v>
       </c>
@@ -2643,7 +2645,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>6</v>
       </c>
@@ -2673,7 +2675,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>7</v>
       </c>
@@ -2703,7 +2705,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>9</v>
       </c>
@@ -2733,14 +2735,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>9</v>
       </c>
       <c r="B13" s="29">
         <v>1221720</v>
       </c>
-      <c r="C13" s="29"/>
+      <c r="C13" s="29">
+        <v>3</v>
+      </c>
       <c r="D13" s="60"/>
       <c r="E13" s="14" t="s">
         <v>28</v>
@@ -2761,7 +2765,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -2785,7 +2789,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -2809,7 +2813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -2833,7 +2837,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -2857,7 +2861,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="14"/>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -2881,7 +2885,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="14"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -2905,7 +2909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -2929,7 +2933,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -2953,7 +2957,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -2977,7 +2981,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -3001,7 +3005,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="47.6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -3025,7 +3029,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:10" ht="52" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
       <c r="B25" s="54"/>
       <c r="C25" s="54"/>
@@ -3094,24 +3098,24 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.35546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.35546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.35546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.35546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.85546875" style="1"/>
+    <col min="26" max="26" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="20.6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3134,8 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="2" spans="1:26" ht="16.3" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="3" spans="1:26" ht="48" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:26" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>38</v>
       </c>
@@ -3232,7 +3236,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="63.45" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>40</v>
       </c>
@@ -3287,7 +3291,7 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="111" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>47</v>
       </c>
@@ -3342,7 +3346,7 @@
       <c r="Y5" s="7"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="79.3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>54</v>
       </c>
@@ -3397,7 +3401,7 @@
       <c r="Y6" s="7"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="79.3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" ht="102" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>60</v>
       </c>
@@ -3452,7 +3456,7 @@
       <c r="Y7" s="7"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>36</v>
       </c>
@@ -3530,7 +3534,7 @@
       <c r="Y8" s="7"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="16.3" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>66</v>
       </c>
@@ -3605,7 +3609,7 @@
       <c r="Y9" s="23"/>
       <c r="Z9" s="16"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
     </row>
   </sheetData>
@@ -3624,26 +3628,26 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="5.640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="16.35546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="17" width="5.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="20.640625" style="1" customWidth="1"/>
+    <col min="22" max="24" width="20.6640625" style="1" customWidth="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.35546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="7.35546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="10.85546875" style="1"/>
+    <col min="26" max="26" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="20.6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>67</v>
       </c>
@@ -3662,7 +3666,7 @@
       <c r="N1" s="13"/>
       <c r="O1" s="13"/>
     </row>
-    <row r="3" spans="1:26" ht="48" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:26" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>38</v>
       </c>
@@ -3763,7 +3767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:26" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>68</v>
       </c>
@@ -3818,7 +3822,7 @@
       <c r="Y4" s="56"/>
       <c r="Z4" s="15"/>
     </row>
-    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:26" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>75</v>
       </c>
@@ -3873,7 +3877,7 @@
       <c r="Y5" s="56"/>
       <c r="Z5" s="15"/>
     </row>
-    <row r="6" spans="1:26" ht="47.6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>82</v>
       </c>
@@ -3928,7 +3932,7 @@
       <c r="Y6" s="56"/>
       <c r="Z6" s="15"/>
     </row>
-    <row r="7" spans="1:26" ht="47.6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>89</v>
       </c>
@@ -3983,7 +3987,7 @@
       <c r="Y7" s="56"/>
       <c r="Z7" s="15"/>
     </row>
-    <row r="8" spans="1:26" ht="47.6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>95</v>
       </c>
@@ -4038,7 +4042,7 @@
       <c r="Y8" s="56"/>
       <c r="Z8" s="15"/>
     </row>
-    <row r="9" spans="1:26" ht="63.45" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:26" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>101</v>
       </c>
@@ -4089,7 +4093,7 @@
       <c r="Y9" s="56"/>
       <c r="Z9" s="15"/>
     </row>
-    <row r="10" spans="1:26" ht="79.3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:26" ht="102" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>106</v>
       </c>
@@ -4144,7 +4148,7 @@
       <c r="Y10" s="56"/>
       <c r="Z10" s="15"/>
     </row>
-    <row r="11" spans="1:26" ht="31.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>112</v>
       </c>
@@ -4199,7 +4203,7 @@
       <c r="Y11" s="56"/>
       <c r="Z11" s="15"/>
     </row>
-    <row r="12" spans="1:26" ht="31.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>118</v>
       </c>
@@ -4254,7 +4258,7 @@
       <c r="Y12" s="56"/>
       <c r="Z12" s="15"/>
     </row>
-    <row r="13" spans="1:26" ht="31.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:26" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>119</v>
       </c>
@@ -4309,7 +4313,7 @@
       <c r="Y13" s="56"/>
       <c r="Z13" s="15"/>
     </row>
-    <row r="14" spans="1:26" ht="31.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:26" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>126</v>
       </c>
@@ -4364,7 +4368,7 @@
       <c r="Y14" s="56"/>
       <c r="Z14" s="15"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>36</v>
       </c>
@@ -4442,7 +4446,7 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="15"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:26" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="22" t="s">
         <v>66</v>
       </c>
@@ -4517,7 +4521,7 @@
       <c r="Y16" s="23"/>
       <c r="Z16" s="16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
     </row>
   </sheetData>
@@ -4532,6 +4536,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d21ddf3f0b128e39c9d770c8c903166">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0326308c339679ad994635f2c691325" ns2:_="">
     <xsd:import namespace="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
@@ -4715,22 +4734,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B77F7C-EE47-4FBD-B078-6536C1487A1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4747,28 +4775,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>